--- a/medicine/Premiers secours et secourisme/Numéro_d'appel_d'urgence/Numéro_d'appel_d'urgence.xlsx
+++ b/medicine/Premiers secours et secourisme/Numéro_d'appel_d'urgence/Numéro_d'appel_d'urgence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Num%C3%A9ro_d%27appel_d%27urgence</t>
+          <t>Numéro_d'appel_d'urgence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les numéros d'appel d'urgence sont des numéros de téléphone permettant de joindre les secours publics vingt-quatre heures sur vingt-quatre et sept jours sur sept. Ce sont en général des numéros courts et gratuits.
 Ci-dessous sont détaillés, classés par continent, et par ordre alphabétique, plusieurs des numéros de téléphone d'urgence dans divers pays francophones et dans beaucoup d'autres pays. Pour une liste plus complète de numéros de téléphone d'urgence internationaux (en anglais), voir ici.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Num%C3%A9ro_d%27appel_d%27urgence</t>
+          <t>Numéro_d'appel_d'urgence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Afrique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Algérie :
 Enfance maltraitée : 3033
@@ -598,7 +612,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Num%C3%A9ro_d%27appel_d%27urgence</t>
+          <t>Numéro_d'appel_d'urgence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -616,14 +630,16 @@
           <t>Amérique du Nord</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Canada :
 Police de secours : 911, au Québec, le 811 pour appel non urgent avec un infirmier ou une infirmière. Le 311 est un numéro d'appel non urgent, permettant de joindre les services publics sans encombrer la ligne d'urgence
  États-Unis :
 Police de secours : 911, le 311 est un numéro d'appel non urgent, permettant de joindre les services publics sans encombrer la ligne d'urgence
  Mexique :
-Police de secours : 911 (toutes urgences)[2] 114 depuis un mobile (Croix Rouge), 767 627 462 (SOS MARINA) depuis un mobile (secours en mer)[3]</t>
+Police de secours : 911 (toutes urgences) 114 depuis un mobile (Croix Rouge), 767 627 462 (SOS MARINA) depuis un mobile (secours en mer)</t>
         </is>
       </c>
     </row>
@@ -633,7 +649,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Num%C3%A9ro_d%27appel_d%27urgence</t>
+          <t>Numéro_d'appel_d'urgence</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -651,7 +667,9 @@
           <t>Amérique du Sud, Centrale et Caraïbes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Venezuela :
 Police : 911
@@ -693,7 +711,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Num%C3%A9ro_d%27appel_d%27urgence</t>
+          <t>Numéro_d'appel_d'urgence</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -711,7 +729,9 @@
           <t>Asie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chine :
 Police : 110
@@ -779,7 +799,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Num%C3%A9ro_d%27appel_d%27urgence</t>
+          <t>Numéro_d'appel_d'urgence</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -797,7 +817,9 @@
           <t>Europe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Union européenne et presque tous les autres pays européens :
 112 (toutes urgences)  Remarque, certains pays de l'Union européenne ont un ou plusieurs numéros d'urgences en plus du 112
@@ -812,8 +834,8 @@
  Andorre :
 Police : 110
 Pompiers et urgences : 118
- Arménie[4]
-Urgences : 112 ou 911[5]
+ Arménie
+Urgences : 112 ou 911
 Pompiers : 101
 Police : 102
 Secours médicaux : 103
@@ -875,23 +897,23 @@
 Accident : 100 22
 Numéro d'appel d'urgence européen : 112
 Secours maritime : 02 04 1000
- France[6],[7]
+ France,
 Gendarmerie / police (Police secours) : 17 ou 112
 SAMU (secours médicaux) : 15 ou 112
 Sapeurs-pompiers : 18 ou 112
 SOS sourd / malentendant : 114 (Accessible par fax, ou SMS uniquement), (toutes urgences)
 SAMU social (SOS Sans Abri) : 115
 Enfants disparus : 116 000
-Enfance en danger - en cours de mise en service et destiné à remplacer à terme le 119 : 116 111[8],[9]
-Médecin de garde : 116 117 [10]
+Enfance en danger - en cours de mise en service et destiné à remplacer à terme le 119 : 116 111,
+Médecin de garde : 116 117 
 Enfance maltraitée : 119
 Urgence aéronautique (à utiliser dans le cas d'accident ou de disparition d'un aéronef) : 191
 Urgence maritime (à utiliser par des témoins d'accidents maritimes depuis le littoral ; en mer, le moyen privilégié reste le canal 16 de détresse maritime) : 196
-Alerte enlèvement / attentats (ce numéro sera activé uniquement dans le cadre du déclenchement de l'alerte enlèvement, ou d'une alerte attentat) : 197[11]
+Alerte enlèvement / attentats (ce numéro sera activé uniquement dans le cadre du déclenchement de l'alerte enlèvement, ou d'une alerte attentat) : 197
 Centre de consultation médicale maritime, téléphone, radiotéléphone marine, Inmarsat (M et Mini M) 32 ou 38 : 00 33 5 34 39 33 33
 Spéléo Secours Français : 0 800 121 123
 Info Covid-19 pour questions non médicales, ouvert de 9h à 19h : 0 800 130 000
-Centres antipoison : ANGERS  •  02 41 48 21 21 (Bretagne, Centre-Val de Loire, Normandie, Pays de la Loire) / BORDEAUX  •  05 56 96 40 80 (Nouvelle-Aquitaine) / LILLE  •  08 00 59 59 59 (Hauts-de-France) / LYON  •  04 72 11 69 11 (Auvergne-Rhône-Alpes) / MARSEILLE  •  04 91 75 25 25 (Provence-Alpes-Côte d'Azur, Corse, La Réunion, Mayotte) / NANCY   •  03 83 22 50 50 (Grand Est, Bourgogne-Franche-Comté) / PARIS  •  01 40 05 48 48 (Île de France, Guadeloupe, Martinique, Guyane) / TOULOUSE  •  05 61 77 74 47 (Occitanie)[12]
+Centres antipoison : ANGERS  •  02 41 48 21 21 (Bretagne, Centre-Val de Loire, Normandie, Pays de la Loire) / BORDEAUX  •  05 56 96 40 80 (Nouvelle-Aquitaine) / LILLE  •  08 00 59 59 59 (Hauts-de-France) / LYON  •  04 72 11 69 11 (Auvergne-Rhône-Alpes) / MARSEILLE  •  04 91 75 25 25 (Provence-Alpes-Côte d'Azur, Corse, La Réunion, Mayotte) / NANCY   •  03 83 22 50 50 (Grand Est, Bourgogne-Franche-Comté) / PARIS  •  01 40 05 48 48 (Île de France, Guadeloupe, Martinique, Guyane) / TOULOUSE  •  05 61 77 74 47 (Occitanie)
  Gibraltar :
 Police, ambulance : 199
 Pompiers : 190
@@ -984,7 +1006,7 @@
 Police : 13
  Suède :
 Numéro européen : 112
- Suisse : Seuls 6 numéros publics sont officiellement urgents pour la Confédération[13],[14] :
+ Suisse : Seuls 6 numéros publics sont officiellement urgents pour la Confédération, :
 Numéro d'appel d'urgence : 112
 Police : 117
 Pompiers : 118
@@ -995,7 +1017,7 @@
 Autres (privés)
 Secours routier : 0800.140.140 opéré par quatre sociétés de dépannage dont le TCS
 Intoxication : 145  Tox Info Suisse
-REGA : 1414 [15]. et Air Glaciers : 1415
+REGA : 1414 . et Air Glaciers : 1415
 Missing Children Switzerland :116 000
  République tchèque :
 Pompiers : 150
@@ -1049,7 +1071,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Num%C3%A9ro_d%27appel_d%27urgence</t>
+          <t>Numéro_d'appel_d'urgence</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1067,7 +1089,9 @@
           <t>Océanie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve"> Australie :
 Police fédérale :  000, 131 444
@@ -1082,7 +1106,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Num%C3%A9ro_d%27appel_d%27urgence</t>
+          <t>Numéro_d'appel_d'urgence</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1100,10 +1124,12 @@
           <t>Principe en France</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La France compte 150 000 appels d'urgence par jour dont 1 200 à 1 500 appels par jour par million d'habitants aux numéros 112/18 des pompiers[16].
-Les appels aux numéros d'urgence transitent par un routeur qui redirige les numéros courts vers des numéros fixes du réseau téléphonique commuté (RTC)[17] lorsque ces numéros fixes fonctionnent. Toutefois, les numéros fixes des services d'urgences peuvent être affectés par des pannes du réseau téléphonique[16].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La France compte 150 000 appels d'urgence par jour dont 1 200 à 1 500 appels par jour par million d'habitants aux numéros 112/18 des pompiers.
+Les appels aux numéros d'urgence transitent par un routeur qui redirige les numéros courts vers des numéros fixes du réseau téléphonique commuté (RTC) lorsque ces numéros fixes fonctionnent. Toutefois, les numéros fixes des services d'urgences peuvent être affectés par des pannes du réseau téléphonique.
 </t>
         </is>
       </c>
@@ -1114,7 +1140,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Num%C3%A9ro_d%27appel_d%27urgence</t>
+          <t>Numéro_d'appel_d'urgence</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1132,11 +1158,13 @@
           <t>Appels sans carte SIM</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-En France, depuis 2004, il est impossible d'effectuer des appels d'urgences sans avoir de carte SIM dans son téléphone[18] :
-Le blocage des appels émis à partir des portables sans carte SIM recommandé par le rapport a été mis en place par le Gouvernement début 2004. Il a permis de rÈduire de 40 % les appels polluants et donc, d'autant les appels induits pris en charge par les SDIS[19].</t>
+En France, depuis 2004, il est impossible d'effectuer des appels d'urgences sans avoir de carte SIM dans son téléphone :
+Le blocage des appels émis à partir des portables sans carte SIM recommandé par le rapport a été mis en place par le Gouvernement début 2004. Il a permis de rÈduire de 40 % les appels polluants et donc, d'autant les appels induits pris en charge par les SDIS.</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1174,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Num%C3%A9ro_d%27appel_d%27urgence</t>
+          <t>Numéro_d'appel_d'urgence</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1164,9 +1192,11 @@
           <t>Principe en Europe</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Dans l'union européenne, le numéro d'appel d'urgence est encadré par la législation depuis 2002[20].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dans l'union européenne, le numéro d'appel d'urgence est encadré par la législation depuis 2002.
 « Les États membres prennent toutes les mesures nécessaires pour assurer l'intégrité du réseau téléphonique public en positions déterminées et, en cas de défaillance catastrophique du réseau ou dans les cas de force majeure, l'accès au réseau téléphonique public et aux services téléphoniques accessibles au public en positions déterminées. Les États membres veillent à ce que les entreprises fournissant des services téléphoniques accessibles au public prennent toutes les mesures appropriées pour garantir un accès ininterrompu aux services d'urgence. »
 — Article 23 de la directive 2002/22/CE du Parlement européen et du Conseil du 7 mars 2002
 « Les États membres veillent à ce que les appels dirigés vers le numéro d'appel d'urgence unique européen "112" reçoivent une réponse appropriée et soient acheminés jusqu'à leurs destinataires de la façon la mieux adaptée à l'organisation nationale des systèmes d'urgence, compte tenu des possibilités technologiques offertes par les réseaux. »
@@ -1180,7 +1210,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Num%C3%A9ro_d%27appel_d%27urgence</t>
+          <t>Numéro_d'appel_d'urgence</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1198,15 +1228,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'instar de plusieurs pays occidentaux où un tel système était déjà en place, le ministère de la Santé français demandait qu'un numéro d'appel d'urgence gratuit lui soit réservé, mais ce n'est qu'en 1978 que le numéro 15 lui a été attribué à titre expérimental pour deux ans. En 1986, chaque SAMU reçoit le numéro 15 comme numéro d’appel unique au niveau d’un département[21].
-Depuis 2019, aux Pays-Bas, la communication d'un unique numéro d'urgence de remplacement suffit en cas de panne du numéro d'urgence principal[22].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'instar de plusieurs pays occidentaux où un tel système était déjà en place, le ministère de la Santé français demandait qu'un numéro d'appel d'urgence gratuit lui soit réservé, mais ce n'est qu'en 1978 que le numéro 15 lui a été attribué à titre expérimental pour deux ans. En 1986, chaque SAMU reçoit le numéro 15 comme numéro d’appel unique au niveau d’un département.
+Depuis 2019, aux Pays-Bas, la communication d'un unique numéro d'urgence de remplacement suffit en cas de panne du numéro d'urgence principal.
 Panne française en 2021
-En 2021, à 16 h 45 mercredi 2 juin la France connait sa première panne des services d'urgence, qui concerne divers services mais aussi le 112[23],[24]. Seuls neufs appels sur dix émis depuis un téléphone fixe peuvent être acheminés et seuls huit appels sur dix émis depuis un téléphone mobile peuvent être acheminés[24].
+En 2021, à 16 h 45 mercredi 2 juin la France connait sa première panne des services d'urgence, qui concerne divers services mais aussi le 112,. Seuls neufs appels sur dix émis depuis un téléphone fixe peuvent être acheminés et seuls huit appels sur dix émis depuis un téléphone mobile peuvent être acheminés.
 Le dysfonctionnement a porté sur l’interconnexion entre les services voix mobile, voix sur IP d’une part et ceux hébergés sur le réseau commuté (la plupart des numéros d’urgence étant sur cette technologie) d’autre part, à la suite d'une opération de modernisation et d’augmentation capacitaire du réseau, débutée début mai, pour répondre à l’accroissement du trafic.
-Le rapport interne d'un opérateur national suggère que les perturbations de réseau téléphoniques sont survenues au moment d'une opération de modernisation du service d'interconnexion des nouvelles technologies de l'information (téléphonie mobile et téléphonie IP) utilisées par une majorité de clients et du classique réseau téléphonique commuté utilisé par les services de secours[25].
-Le dysfonctionnement provenait d'un bug dans les logiciels de calls servers et se produisait au moment des commandes usuelles de reconnexion[25].
+Le rapport interne d'un opérateur national suggère que les perturbations de réseau téléphoniques sont survenues au moment d'une opération de modernisation du service d'interconnexion des nouvelles technologies de l'information (téléphonie mobile et téléphonie IP) utilisées par une majorité de clients et du classique réseau téléphonique commuté utilisé par les services de secours.
+Le dysfonctionnement provenait d'un bug dans les logiciels de calls servers et se produisait au moment des commandes usuelles de reconnexion.
 </t>
         </is>
       </c>
